--- a/medicine/Enfance/Journal_d'un_dégonflé/Journal_d'un_dégonflé.xlsx
+++ b/medicine/Enfance/Journal_d'un_dégonflé/Journal_d'un_dégonflé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fameux Journal d'un dégonflé (en anglais Diary of a Wimpy Kid) est une série de romans illustrés pour enfants, écrits et illustrés par l'auteur comique Jeff Kinney.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé des histoires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gregory Heffley (surnommé simplement Greg) est un garçon de douze ans qui a souvent des problèmes, aussi bien chez lui qu’au collège. Il raconte donc ses mésaventures dans son journal (qu’il a rebaptisé « carnet de bord » car il ne veut pas écrire dans un journal intime), où il affirme écrire parce que, devenu plus tard riche et célèbre, il n’aura pas le temps de répondre à des questions stupides. Dans sa famille, le père de Greg ne veut pas que son fils devienne un « dégonflé » et aimerait qu’il fasse du sport. Sa mère n’aime pas les mensonges et chouchoute son petit frère Manu. Son frère aîné Rodrick l’embête par tous les moyens et Manu en profite pour dénoncer Greg quand il fait des bêtises. Il a aussi un ami Robert, qu’il supporte histoire de ne pas être seul.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Sortie du septième tome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publié en anglais (sa langue d'origine) aux États-Unis le 1er avril 2007 aux éditions Amulet Books, le premier roman est traduit en français par la traductrice Natalie Zimmermann et sort aux éditions du Seuil. Il est apparu dans la liste des best-sellers du New York Times[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publié en anglais (sa langue d'origine) aux États-Unis le 1er avril 2007 aux éditions Amulet Books, le premier roman est traduit en français par la traductrice Natalie Zimmermann et sort aux éditions du Seuil. Il est apparu dans la liste des best-sellers du New York Times.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeff Kinney est concepteur et réalisateur de jeux en ligne. En 1998, il commence à crayonner un personnage dont il commencera à publier les aventures en ligne 6 ans plus tard. Après près de 50 millions de visites (100 000 connexions par jour), l’éditeur Abrams décide de le publier en version imprimée, avec grand succès.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Greg Heffley :  personnage principal de la série. C'est un jeune adolescent assez timide, maladroit et plutôt solitaire. Robert Jefferson est son meilleur ami. Il ne cesse de jouer aux jeux vidéo, de dormir et de regarder la télévision. Il est la victime des vilains tours de son frère aîné, Rodrick.
 Robert Jefferson : il est le meilleur ami de Greg. C'est un garçon gros, enfantin et guère intéressé par l'amour. Il a une coupe au bol. Il ne fait jamais ce que Greg attend de lui, et il adore Patrick, une star pour les enfants.
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Carnet de bord de Greg Heffley, Seuil, 2009 ((en) Diary of a Wimpy Kid, 2007)  (ISBN 978-2-02-097356-4) : Greg a 12 ans, un frère aîné musicien qui lui fait des blagues, un petit frère qui le colle, un copain qu'il supporte hiseul, des problèmes avec les filles qui pouffent à longueur de journée, des parents qui ne comprennent jamais rien à ce qu'il demande… Un jour, sa mère lui offre un journal intime, que Greg rebaptise en carnet de bord.
 Rodrick fait sa loi, Seuil, 2009 ((en) Rodrick Rules, 2008)  (ISBN 978-2-02098-818-6) : Pour Greg, la rentrée scolaire est presque une bonne nouvelle tellement ses vacances ont été horribles. Il y a surtout un évènement qu'il aimerait mieux oublier. Mais Rodrick, son frère aîné, sait tout… et espère le faire chanter !
@@ -677,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,7 +717,9 @@
           <t>Hors-séries</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Journal d'un dégonflé à écrire toi-même, Seuil, 2011 ((en) The Wimpy Kid Do-It-Yourself Book, 2011)</t>
         </is>
@@ -707,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Journal_d%27un_d%C3%A9gonfl%C3%A9</t>
+          <t>Journal_d'un_dégonflé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,7 +749,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre des romans de cette série ont été adaptés au cinéma et distribué par 20th Century Fox : Journal d'un dégonflé (sorti en 2010 aux États-Unis), Journal d'un dégonflé : Rodrick fait sa loi (2011), Journal d'un dégonflé : Ça fait suer ! (2012) et Journal d'un dégonflé : Un loooong voyage (2017). 
 Le premier film de 2010, Journal d'un dégonflé, a été réadapté pour les enfants en film d'animation par Disney en 2021, directement sorti en SVOD sur la plateforme Disney+ sous le titre Le Journal d'un dégonflé.
